--- a/DatosModelo/Data.xlsx
+++ b/DatosModelo/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\DatosModelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F37CB70-CE4C-4659-A106-481DD2EE39A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4C8FF5-D5EE-481D-8F70-3E57CE61C08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaudalLiquido" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Class</t>
   </si>
@@ -287,6 +287,40 @@
   <si>
     <t>Invert Elevation (m) 01Jan2010 Medido</t>
   </si>
+  <si>
+    <r>
+      <t>Caudal (m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s)</t>
+    </r>
+  </si>
+  <si>
+    <t>Carga por arrastre (tonnes/day)</t>
+  </si>
+  <si>
+    <t>Carga en suspensión (tonnes/day)</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +329,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -407,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,15 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,11 +532,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18238,15 +18278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
+      <xdr:colOff>763905</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18623,7 +18663,7 @@
   <dimension ref="A1:K369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18658,7 +18698,7 @@
       <c r="E3" s="25">
         <v>6326.5</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -18678,7 +18718,7 @@
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -26018,7 +26058,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26034,18 +26074,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
         <v>24</v>
@@ -26055,8 +26095,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="19" t="s">
         <v>26</v>
       </c>
@@ -26487,15 +26527,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765EF92A-418E-4913-8974-B893B5018CE3}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26528,10 +26569,10 @@
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -26915,6 +26956,39 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="42">
+        <v>5.85</v>
+      </c>
+      <c r="B27" s="42">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C27" s="42">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="42">
+        <v>6.52</v>
+      </c>
+      <c r="B28" s="42">
+        <v>6.36</v>
+      </c>
+      <c r="C28" s="42">
+        <v>70.599999999999994</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26929,51 +27003,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB147C9E-B358-4E02-AE45-212B46EC1BC2}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A57:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.21875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="34" customWidth="1"/>
-    <col min="5" max="12" width="17.77734375" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="34"/>
+    <col min="1" max="3" width="11.21875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="31" customWidth="1"/>
+    <col min="5" max="12" width="17.77734375" style="32" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" s="26" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="27" t="s">
         <v>59</v>
       </c>
@@ -27022,25 +27096,25 @@
       <c r="E5" s="28">
         <v>40.921100000000003</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="34">
         <v>40.752600000000001</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="34">
         <v>41.0124</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="34">
         <v>41.061399999999999</v>
       </c>
       <c r="I5" s="28">
         <v>-8054.5956999999999</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="34">
         <v>-15074.3262</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="34">
         <v>-10991.8184</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="34">
         <v>-7115.3823000000002</v>
       </c>
     </row>
@@ -27060,25 +27134,25 @@
       <c r="E6" s="28">
         <v>41.378500000000003</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="34">
         <v>41.316600000000001</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="34">
         <v>41.472499999999997</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="34">
         <v>41.477800000000002</v>
       </c>
       <c r="I6" s="28">
         <v>-7320.8545000000004</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="34">
         <v>-13049.679700000001</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="34">
         <v>-10624.8086</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="34">
         <v>-6992.2749000000003</v>
       </c>
     </row>
@@ -27098,25 +27172,25 @@
       <c r="E7" s="28">
         <v>42.0916</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="34">
         <v>42.203600000000002</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="34">
         <v>42.162500000000001</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="34">
         <v>42.145899999999997</v>
       </c>
       <c r="I7" s="28">
         <v>-10790.124</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="34">
         <v>-15256.7178</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="34">
         <v>-15876.8066</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="34">
         <v>-12413.574199999999</v>
       </c>
     </row>
@@ -27136,25 +27210,25 @@
       <c r="E8" s="28">
         <v>42.406199999999998</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="34">
         <v>42.4985</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="34">
         <v>42.463200000000001</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>42.4313</v>
       </c>
       <c r="I8" s="28">
         <v>-13342.4082</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="34">
         <v>-19144.144499999999</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="34">
         <v>-20247.613300000001</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="34">
         <v>-16318.294900000001</v>
       </c>
     </row>
@@ -27174,25 +27248,25 @@
       <c r="E9" s="28">
         <v>42.505699999999997</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="34">
         <v>42.720799999999997</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="34">
         <v>42.5976</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="34">
         <v>42.565300000000001</v>
       </c>
       <c r="I9" s="28">
         <v>-12828.5996</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="34">
         <v>-19622.7637</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="34">
         <v>-20309.394499999999</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="34">
         <v>-16028.540999999999</v>
       </c>
     </row>
@@ -27212,25 +27286,25 @@
       <c r="E10" s="28">
         <v>42.756799999999998</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="34">
         <v>43.003799999999998</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="34">
         <v>42.859400000000001</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="34">
         <v>42.815199999999997</v>
       </c>
       <c r="I10" s="28">
         <v>-11231.362300000001</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="34">
         <v>-18689.720700000002</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="34">
         <v>-18858.914100000002</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="34">
         <v>-14407.261699999999</v>
       </c>
     </row>
@@ -27250,25 +27324,25 @@
       <c r="E11" s="28">
         <v>42.750300000000003</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="34">
         <v>43.001199999999997</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="34">
         <v>42.851999999999997</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="34">
         <v>42.814799999999998</v>
       </c>
       <c r="I11" s="28">
         <v>-12102.9141</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="34">
         <v>-20151.845700000002</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="34">
         <v>-19906.150399999999</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="34">
         <v>-15392.5059</v>
       </c>
     </row>
@@ -27288,25 +27362,25 @@
       <c r="E12" s="28">
         <v>42.7423</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="34">
         <v>43.023400000000002</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="34">
         <v>42.841700000000003</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="34">
         <v>42.8048</v>
       </c>
       <c r="I12" s="28">
         <v>-12598.2402</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="34">
         <v>-20991.462899999999</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="34">
         <v>-20514.458999999999</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="34">
         <v>-15970.9619</v>
       </c>
     </row>
@@ -27326,25 +27400,25 @@
       <c r="E13" s="28">
         <v>42.904699999999998</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="34">
         <v>43.241999999999997</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="34">
         <v>43.0045</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="34">
         <v>42.964300000000001</v>
       </c>
       <c r="I13" s="28">
         <v>-14497.2217</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="34">
         <v>-23274.9473</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="34">
         <v>-22392.601600000002</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="34">
         <v>-17972.429700000001</v>
       </c>
     </row>
@@ -27364,25 +27438,25 @@
       <c r="E14" s="28">
         <v>43.053600000000003</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="34">
         <v>43.409599999999998</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="34">
         <v>43.132899999999999</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="34">
         <v>43.085099999999997</v>
       </c>
       <c r="I14" s="28">
         <v>-17127.3613</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="34">
         <v>-26633.1211</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="34">
         <v>-25432.025399999999</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="34">
         <v>-20874.0586</v>
       </c>
     </row>
@@ -27402,25 +27476,25 @@
       <c r="E15" s="28">
         <v>43.240699999999997</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="34">
         <v>43.6203</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="34">
         <v>43.3202</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="34">
         <v>43.252600000000001</v>
       </c>
       <c r="I15" s="28">
         <v>-17805.794900000001</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="34">
         <v>-28448.3066</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="34">
         <v>-26661.7402</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="34">
         <v>-21903.580099999999</v>
       </c>
     </row>
@@ -27440,25 +27514,25 @@
       <c r="E16" s="28">
         <v>43.506399999999999</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="34">
         <v>43.826000000000001</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="34">
         <v>43.531599999999997</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="34">
         <v>43.4709</v>
       </c>
       <c r="I16" s="28">
         <v>-18504.007799999999</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="34">
         <v>-30020.027300000002</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="34">
         <v>-27729.720700000002</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="34">
         <v>-22831.5098</v>
       </c>
     </row>
@@ -27478,25 +27552,25 @@
       <c r="E17" s="28">
         <v>43.757199999999997</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="34">
         <v>44.037799999999997</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="34">
         <v>43.738300000000002</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="34">
         <v>43.664499999999997</v>
       </c>
       <c r="I17" s="28">
         <v>-19243.333999999999</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="34">
         <v>-31706.015599999999</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="34">
         <v>-28866.831999999999</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="34">
         <v>-23880.8613</v>
       </c>
     </row>
@@ -27516,25 +27590,25 @@
       <c r="E18" s="28">
         <v>44.010800000000003</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="34">
         <v>44.2577</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="34">
         <v>43.973399999999998</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="34">
         <v>43.903100000000002</v>
       </c>
       <c r="I18" s="28">
         <v>-20323.5762</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="34">
         <v>-33661.660199999998</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="34">
         <v>-30199.3145</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="34">
         <v>-25027.1875</v>
       </c>
     </row>
@@ -27554,25 +27628,25 @@
       <c r="E19" s="28">
         <v>44.071100000000001</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="34">
         <v>44.280200000000001</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="34">
         <v>44.021000000000001</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="34">
         <v>43.943899999999999</v>
       </c>
       <c r="I19" s="28">
         <v>-21429.521499999999</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="34">
         <v>-35374.898399999998</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="34">
         <v>-31447.175800000001</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="34">
         <v>-26136.216799999998</v>
       </c>
     </row>
@@ -27592,25 +27666,25 @@
       <c r="E20" s="28">
         <v>44.3063</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="34">
         <v>44.532600000000002</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="34">
         <v>44.262900000000002</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="34">
         <v>44.179299999999998</v>
       </c>
       <c r="I20" s="28">
         <v>-22251.771499999999</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="34">
         <v>-36718.449200000003</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="34">
         <v>-32380.175800000001</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="34">
         <v>-26983.8789</v>
       </c>
     </row>
@@ -27630,25 +27704,25 @@
       <c r="E21" s="28">
         <v>44.445999999999998</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="34">
         <v>44.7072</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="34">
         <v>44.383600000000001</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="34">
         <v>44.307099999999998</v>
       </c>
       <c r="I21" s="28">
         <v>-23291.4961</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="34">
         <v>-38325.667999999998</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="34">
         <v>-33513.828099999999</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="34">
         <v>-27937.734400000001</v>
       </c>
     </row>
@@ -27668,25 +27742,25 @@
       <c r="E22" s="28">
         <v>44.552999999999997</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="34">
         <v>44.860799999999998</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="34">
         <v>44.491399999999999</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="34">
         <v>44.404299999999999</v>
       </c>
       <c r="I22" s="28">
         <v>-24354.919900000001</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="34">
         <v>-39837.109400000001</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="34">
         <v>-34610.378900000003</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="34">
         <v>-28813.519499999999</v>
       </c>
     </row>
@@ -27706,25 +27780,25 @@
       <c r="E23" s="28">
         <v>44.696399999999997</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="34">
         <v>44.890599999999999</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="34">
         <v>44.564700000000002</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="34">
         <v>44.475299999999997</v>
       </c>
       <c r="I23" s="28">
         <v>-25855.347699999998</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="34">
         <v>-41754.289100000002</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="34">
         <v>-35944.031199999998</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="34">
         <v>-29840.533200000002</v>
       </c>
     </row>
@@ -27744,25 +27818,25 @@
       <c r="E24" s="28">
         <v>44.872700000000002</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="34">
         <v>45.077399999999997</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="34">
         <v>44.715400000000002</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="34">
         <v>44.636000000000003</v>
       </c>
       <c r="I24" s="28">
         <v>-27765.658200000002</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="34">
         <v>-45022.527300000002</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="34">
         <v>-37659.378900000003</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="34">
         <v>-31279.544900000001</v>
       </c>
     </row>
@@ -27782,25 +27856,25 @@
       <c r="E25" s="28">
         <v>45.087299999999999</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="34">
         <v>45.306399999999996</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="34">
         <v>44.892800000000001</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="34">
         <v>44.819499999999998</v>
       </c>
       <c r="I25" s="28">
         <v>-29642.875</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="34">
         <v>-48698.074200000003</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="34">
         <v>-39149.261700000003</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="34">
         <v>-32494.031200000001</v>
       </c>
     </row>
@@ -27820,25 +27894,25 @@
       <c r="E26" s="28">
         <v>45.261499999999998</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="34">
         <v>45.459499999999998</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="34">
         <v>45.043700000000001</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="34">
         <v>44.987900000000003</v>
       </c>
       <c r="I26" s="28">
         <v>-31924.656200000001</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="34">
         <v>-54851.605499999998</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="34">
         <v>-40513.933599999997</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="34">
         <v>-33714.410199999998</v>
       </c>
     </row>
@@ -27858,25 +27932,25 @@
       <c r="E27" s="28">
         <v>45.459899999999998</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="34">
         <v>45.621899999999997</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="34">
         <v>45.222099999999998</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="34">
         <v>45.178100000000001</v>
       </c>
       <c r="I27" s="28">
         <v>-33600.593800000002</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="34">
         <v>-58084.652300000002</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="34">
         <v>-41759.464800000002</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="34">
         <v>-34621.273399999998</v>
       </c>
     </row>
@@ -27896,25 +27970,25 @@
       <c r="E28" s="28">
         <v>45.734900000000003</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="34">
         <v>45.769500000000001</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="34">
         <v>45.555900000000001</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="34">
         <v>45.492100000000001</v>
       </c>
       <c r="I28" s="28">
         <v>-35960.164100000002</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="34">
         <v>-64845.378900000003</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="34">
         <v>-43671.742200000001</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="34">
         <v>-35799.136700000003</v>
       </c>
     </row>
@@ -27934,25 +28008,25 @@
       <c r="E29" s="28">
         <v>45.932299999999998</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="34">
         <v>45.9544</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="34">
         <v>45.831800000000001</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="34">
         <v>45.7624</v>
       </c>
       <c r="I29" s="28">
         <v>-39052.191400000003</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="34">
         <v>-71838.601599999995</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="34">
         <v>-46081.535199999998</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="34">
         <v>-38221.011700000003</v>
       </c>
     </row>
@@ -27972,25 +28046,25 @@
       <c r="E30" s="28">
         <v>46.284399999999998</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="34">
         <v>46.048699999999997</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="34">
         <v>46.256300000000003</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="34">
         <v>46.061700000000002</v>
       </c>
       <c r="I30" s="28">
         <v>-41588.507799999999</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="34">
         <v>-78408.757800000007</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="34">
         <v>-48042.078099999999</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="34">
         <v>-40556.792999999998</v>
       </c>
     </row>
@@ -28010,25 +28084,25 @@
       <c r="E31" s="28">
         <v>46.535499999999999</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="34">
         <v>46.1755</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="34">
         <v>46.5777</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="34">
         <v>46.445799999999998</v>
       </c>
       <c r="I31" s="28">
         <v>-43672.777300000002</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="34">
         <v>-85591.757800000007</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="34">
         <v>-50459.738299999997</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="34">
         <v>-41546.621099999997</v>
       </c>
     </row>
@@ -28048,25 +28122,25 @@
       <c r="E32" s="28">
         <v>46.623100000000001</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="34">
         <v>46.213999999999999</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="34">
         <v>46.660499999999999</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="34">
         <v>46.546199999999999</v>
       </c>
       <c r="I32" s="28">
         <v>-44751.769500000002</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="34">
         <v>-94871.335900000005</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="34">
         <v>-53454.570299999999</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="34">
         <v>-43334.351600000002</v>
       </c>
     </row>
@@ -28086,25 +28160,25 @@
       <c r="E33" s="28">
         <v>46.774500000000003</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="34">
         <v>46.320399999999999</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="34">
         <v>46.8247</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="34">
         <v>46.677799999999998</v>
       </c>
       <c r="I33" s="28">
         <v>-44922.238299999997</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="34">
         <v>-104166.10159999999</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="34">
         <v>-55753.300799999997</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="34">
         <v>-45698.730499999998</v>
       </c>
     </row>
@@ -28124,25 +28198,25 @@
       <c r="E34" s="28">
         <v>46.815399999999997</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="34">
         <v>46.198500000000003</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="34">
         <v>46.841700000000003</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="34">
         <v>46.762999999999998</v>
       </c>
       <c r="I34" s="28">
         <v>-46564.105499999998</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="34">
         <v>-103964.78909999999</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="34">
         <v>-57157.335899999998</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="34">
         <v>-47197.195299999999</v>
       </c>
     </row>
@@ -28162,25 +28236,25 @@
       <c r="E35" s="28">
         <v>47.536900000000003</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="34">
         <v>46.8172</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="34">
         <v>47.424500000000002</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="34">
         <v>47.375300000000003</v>
       </c>
       <c r="I35" s="28">
         <v>-52088.300799999997</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="34">
         <v>-106795.83590000001</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="34">
         <v>-63542.207000000002</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="34">
         <v>-52712.605499999998</v>
       </c>
     </row>
@@ -28200,25 +28274,25 @@
       <c r="E36" s="28">
         <v>47.936700000000002</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="34">
         <v>47.098199999999999</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="34">
         <v>47.817700000000002</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="34">
         <v>47.815300000000001</v>
       </c>
       <c r="I36" s="28">
         <v>-47121.628900000003</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="34">
         <v>-94417.078099999999</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="34">
         <v>-51491.8125</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="34">
         <v>-40676.839800000002</v>
       </c>
     </row>
@@ -28238,25 +28312,25 @@
       <c r="E37" s="28">
         <v>48.073700000000002</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="34">
         <v>47.150599999999997</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="34">
         <v>47.938899999999997</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="34">
         <v>47.979599999999998</v>
       </c>
       <c r="I37" s="28">
         <v>-42537.152300000002</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="34">
         <v>-87951.734400000001</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="34">
         <v>-44640.269500000002</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="34">
         <v>-34210.25</v>
       </c>
     </row>
@@ -28276,25 +28350,25 @@
       <c r="E38" s="28">
         <v>48.756799999999998</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="34">
         <v>48.093899999999998</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="34">
         <v>48.7331</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="34">
         <v>48.8324</v>
       </c>
       <c r="I38" s="28">
         <v>-34429.832000000002</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="34">
         <v>-76420.585900000005</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="34">
         <v>-33989.019500000002</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="34">
         <v>-23761.712899999999</v>
       </c>
     </row>
@@ -28314,25 +28388,25 @@
       <c r="E39" s="28">
         <v>49.227499999999999</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="34">
         <v>48.582599999999999</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="34">
         <v>49.211199999999998</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="34">
         <v>49.327399999999997</v>
       </c>
       <c r="I39" s="28">
         <v>-29841.125</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="34">
         <v>-67672.570300000007</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="34">
         <v>-29048.75</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="34">
         <v>-18671.220700000002</v>
       </c>
     </row>
@@ -28352,25 +28426,25 @@
       <c r="E40" s="28">
         <v>49.669400000000003</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="34">
         <v>48.966900000000003</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="34">
         <v>49.625500000000002</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="34">
         <v>49.7577</v>
       </c>
       <c r="I40" s="28">
         <v>-26308.7539</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="34">
         <v>-61077.203099999999</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="34">
         <v>-24594.1211</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="34">
         <v>-14692.6895</v>
       </c>
     </row>
@@ -28390,25 +28464,25 @@
       <c r="E41" s="28">
         <v>49.976900000000001</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="34">
         <v>49.34</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="34">
         <v>50.024900000000002</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="34">
         <v>50.209000000000003</v>
       </c>
       <c r="I41" s="28">
         <v>-23001.234400000001</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="34">
         <v>-54216.527300000002</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="34">
         <v>-20070.1191</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="34">
         <v>-10881.8135</v>
       </c>
     </row>
@@ -28428,25 +28502,25 @@
       <c r="E42" s="28">
         <v>50.244399999999999</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="34">
         <v>49.658000000000001</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="34">
         <v>50.338900000000002</v>
       </c>
-      <c r="H42" s="37">
+      <c r="H42" s="34">
         <v>50.564500000000002</v>
       </c>
       <c r="I42" s="28">
         <v>-19976.646499999999</v>
       </c>
-      <c r="J42" s="37">
+      <c r="J42" s="34">
         <v>-47786.617200000001</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="34">
         <v>-16320.4668</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L42" s="34">
         <v>-8069.2212</v>
       </c>
     </row>
@@ -28466,25 +28540,25 @@
       <c r="E43" s="28">
         <v>50.490600000000001</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="34">
         <v>49.889800000000001</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="34">
         <v>50.5991</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="34">
         <v>50.883800000000001</v>
       </c>
       <c r="I43" s="28">
         <v>-17459.734400000001</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="34">
         <v>-42568.515599999999</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="34">
         <v>-13835.0137</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="34">
         <v>-6480.9364999999998</v>
       </c>
     </row>
@@ -28504,25 +28578,25 @@
       <c r="E44" s="28">
         <v>50.715899999999998</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="34">
         <v>50.246899999999997</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="34">
         <v>50.959699999999998</v>
       </c>
-      <c r="H44" s="37">
+      <c r="H44" s="34">
         <v>51.3568</v>
       </c>
       <c r="I44" s="28">
         <v>-14211.069299999999</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J44" s="34">
         <v>-36676.656199999998</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="34">
         <v>-10370.374</v>
       </c>
-      <c r="L44" s="37">
+      <c r="L44" s="34">
         <v>-4642.7163</v>
       </c>
     </row>
@@ -28542,25 +28616,25 @@
       <c r="E45" s="28">
         <v>50.895899999999997</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="34">
         <v>50.558100000000003</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="34">
         <v>51.1325</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="34">
         <v>51.242899999999999</v>
       </c>
       <c r="I45" s="28">
         <v>-7216.1597000000002</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="34">
         <v>-26748.230500000001</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="34">
         <v>-4465.6347999999998</v>
       </c>
-      <c r="L45" s="37">
+      <c r="L45" s="34">
         <v>-2066.3119999999999</v>
       </c>
     </row>
@@ -28580,25 +28654,25 @@
       <c r="E46" s="28">
         <v>50.880400000000002</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="34">
         <v>50.583799999999997</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="34">
         <v>51.171900000000001</v>
       </c>
-      <c r="H46" s="37">
+      <c r="H46" s="34">
         <v>51.265999999999998</v>
       </c>
       <c r="I46" s="28">
         <v>-6033.3374000000003</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="34">
         <v>-24261.261699999999</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="34">
         <v>-4110.4252999999999</v>
       </c>
-      <c r="L46" s="37">
+      <c r="L46" s="34">
         <v>-2117.2512000000002</v>
       </c>
     </row>
@@ -28618,25 +28692,25 @@
       <c r="E47" s="28">
         <v>50.931199999999997</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="34">
         <v>50.6389</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="34">
         <v>51.189100000000003</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="34">
         <v>51.311</v>
       </c>
       <c r="I47" s="28">
         <v>-5863.6094000000003</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="34">
         <v>-23897.277300000002</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="34">
         <v>-4078.8456999999999</v>
       </c>
-      <c r="L47" s="37">
+      <c r="L47" s="34">
         <v>-2130.0106999999998</v>
       </c>
     </row>
@@ -28656,25 +28730,25 @@
       <c r="E48" s="28">
         <v>51.829000000000001</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="34">
         <v>51.448300000000003</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="34">
         <v>51.828200000000002</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="34">
         <v>51.862699999999997</v>
       </c>
       <c r="I48" s="28">
         <v>-4914.5370999999996</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="34">
         <v>-20664.892599999999</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="34">
         <v>-3886.0769</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="34">
         <v>-2472.3341999999998</v>
       </c>
     </row>
@@ -28694,25 +28768,25 @@
       <c r="E49" s="28">
         <v>52.069899999999997</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="34">
         <v>51.7804</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="34">
         <v>52.101999999999997</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="34">
         <v>52.188000000000002</v>
       </c>
       <c r="I49" s="28">
         <v>-4130.2954</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="34">
         <v>-16877.414100000002</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="34">
         <v>-3259.2069999999999</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="34">
         <v>-2062.54</v>
       </c>
     </row>
@@ -28732,25 +28806,25 @@
       <c r="E50" s="28">
         <v>52.282600000000002</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="34">
         <v>52.003100000000003</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="34">
         <v>52.332299999999996</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="34">
         <v>52.343699999999998</v>
       </c>
       <c r="I50" s="28">
         <v>-3683.4218999999998</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="34">
         <v>-14531.9766</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="34">
         <v>-2768.1471999999999</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="34">
         <v>-1999.0963999999999</v>
       </c>
     </row>
@@ -28770,25 +28844,25 @@
       <c r="E51" s="28">
         <v>52.442500000000003</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="34">
         <v>52.197099999999999</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="34">
         <v>52.398600000000002</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="34">
         <v>52.404299999999999</v>
       </c>
       <c r="I51" s="28">
         <v>-3386.5652</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="34">
         <v>-12581.5879</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="34">
         <v>-2713.6421</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="34">
         <v>-1998.6098999999999</v>
       </c>
     </row>
@@ -28808,25 +28882,25 @@
       <c r="E52" s="28">
         <v>52.620800000000003</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="34">
         <v>52.3369</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="34">
         <v>52.458799999999997</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="34">
         <v>52.459800000000001</v>
       </c>
       <c r="I52" s="28">
         <v>-3514.3054000000002</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="34">
         <v>-11267.2881</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="34">
         <v>-2660.6815999999999</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="34">
         <v>-2030.4003</v>
       </c>
     </row>
@@ -28846,25 +28920,25 @@
       <c r="E53" s="28">
         <v>52.628799999999998</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="34">
         <v>52.344799999999999</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="34">
         <v>52.531100000000002</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="34">
         <v>52.551400000000001</v>
       </c>
       <c r="I53" s="28">
         <v>-3815.1453000000001</v>
       </c>
-      <c r="J53" s="37">
+      <c r="J53" s="34">
         <v>-10709.7158</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="34">
         <v>-2617.1862999999998</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="34">
         <v>-2065.0862000000002</v>
       </c>
     </row>
@@ -28884,25 +28958,25 @@
       <c r="E54" s="28">
         <v>52.785600000000002</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="34">
         <v>52.517299999999999</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="34">
         <v>52.976700000000001</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="34">
         <v>52.982399999999998</v>
       </c>
       <c r="I54" s="28">
         <v>-4283.3383999999996</v>
       </c>
-      <c r="J54" s="37">
+      <c r="J54" s="34">
         <v>-10152.536099999999</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="34">
         <v>-2798.3656999999998</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="34">
         <v>-2315.7543999999998</v>
       </c>
     </row>
@@ -28922,25 +28996,25 @@
       <c r="E55" s="28">
         <v>52.884900000000002</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="34">
         <v>52.502899999999997</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="34">
         <v>52.935400000000001</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="34">
         <v>53.002099999999999</v>
       </c>
       <c r="I55" s="28">
         <v>-3349.6938</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="34">
         <v>-7958.3525</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="34">
         <v>-2420.5542</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="34">
         <v>-1951.4675</v>
       </c>
     </row>
@@ -28960,25 +29034,25 @@
       <c r="E56" s="28">
         <v>52.976999999999997</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="34">
         <v>52.524700000000003</v>
       </c>
-      <c r="G56" s="37">
+      <c r="G56" s="34">
         <v>52.997999999999998</v>
       </c>
-      <c r="H56" s="37">
+      <c r="H56" s="34">
         <v>53.070700000000002</v>
       </c>
       <c r="I56" s="28">
         <v>-2890.5688</v>
       </c>
-      <c r="J56" s="37">
+      <c r="J56" s="34">
         <v>-6855.9395000000004</v>
       </c>
-      <c r="K56" s="37">
+      <c r="K56" s="34">
         <v>-1970.8433</v>
       </c>
-      <c r="L56" s="37">
+      <c r="L56" s="34">
         <v>-1579.5187000000001</v>
       </c>
     </row>
@@ -28998,25 +29072,25 @@
       <c r="E57" s="28">
         <v>53.103299999999997</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="34">
         <v>52.640700000000002</v>
       </c>
-      <c r="G57" s="37">
+      <c r="G57" s="34">
         <v>53.208100000000002</v>
       </c>
-      <c r="H57" s="37">
+      <c r="H57" s="34">
         <v>53.29</v>
       </c>
       <c r="I57" s="28">
         <v>-2291.8434999999999</v>
       </c>
-      <c r="J57" s="37">
+      <c r="J57" s="34">
         <v>-5356.3374000000003</v>
       </c>
-      <c r="K57" s="37">
+      <c r="K57" s="34">
         <v>-1247.0491</v>
       </c>
-      <c r="L57" s="37">
+      <c r="L57" s="34">
         <v>-987.21420000000001</v>
       </c>
     </row>
@@ -29036,25 +29110,25 @@
       <c r="E58" s="28">
         <v>53.104599999999998</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="34">
         <v>52.652500000000003</v>
       </c>
-      <c r="G58" s="37">
+      <c r="G58" s="34">
         <v>53.234999999999999</v>
       </c>
-      <c r="H58" s="37">
+      <c r="H58" s="34">
         <v>53.2973</v>
       </c>
       <c r="I58" s="28">
         <v>-1881.251</v>
       </c>
-      <c r="J58" s="37">
+      <c r="J58" s="34">
         <v>-4311.7168000000001</v>
       </c>
-      <c r="K58" s="37">
+      <c r="K58" s="34">
         <v>-802.23080000000004</v>
       </c>
-      <c r="L58" s="37">
+      <c r="L58" s="34">
         <v>-636.77250000000004</v>
       </c>
     </row>
@@ -29074,65 +29148,65 @@
       <c r="E59" s="28">
         <v>53.315300000000001</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="34">
         <v>52.882399999999997</v>
       </c>
-      <c r="G59" s="37">
+      <c r="G59" s="34">
         <v>53.729100000000003</v>
       </c>
-      <c r="H59" s="37">
+      <c r="H59" s="34">
         <v>53.736699999999999</v>
       </c>
       <c r="I59" s="28">
         <v>-1042.6088</v>
       </c>
-      <c r="J59" s="37">
+      <c r="J59" s="34">
         <v>-2058.3364000000001</v>
       </c>
-      <c r="K59" s="37">
+      <c r="K59" s="34">
         <v>-53.754399999999997</v>
       </c>
-      <c r="L59" s="37">
+      <c r="L59" s="34">
         <v>-24.439499999999999</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="39" cm="1">
+      <c r="F60" s="36" cm="1">
         <f t="array" ref="F60">+SQRT(SUMSQ($E$5:$E$59-F5:F59)/$A$59)</f>
         <v>0.40266137386146189</v>
       </c>
-      <c r="G60" s="39" cm="1">
+      <c r="G60" s="36" cm="1">
         <f t="array" ref="G60">+SQRT(SUMSQ($E$5:$E$59-G5:G59)/$A$59)</f>
         <v>0.13159762294067645</v>
       </c>
-      <c r="H60" s="39" cm="1">
+      <c r="H60" s="36" cm="1">
         <f t="array" ref="H60">+SQRT(SUMSQ($E$5:$E$59-H5:H59)/$A$59)</f>
         <v>0.20061770066019061</v>
       </c>
-      <c r="I60" s="38" t="s">
+      <c r="I60" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J60" s="39" cm="1">
+      <c r="J60" s="36" cm="1">
         <f t="array" ref="J60">+SQRT(SUMSQ($E$5:$E$59-J5:J59)/$A$59)</f>
         <v>49287.98302081164</v>
       </c>
-      <c r="K60" s="39" cm="1">
+      <c r="K60" s="36" cm="1">
         <f t="array" ref="K60">+SQRT(SUMSQ($E$5:$E$59-K5:K59)/$A$59)</f>
         <v>29988.617125333367</v>
       </c>
-      <c r="L60" s="39" cm="1">
+      <c r="L60" s="36" cm="1">
         <f t="array" ref="L60">+SQRT(SUMSQ($E$5:$E$59-L5:L59)/$A$59)</f>
         <v>24177.54697627218</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L61" s="40"/>
+      <c r="L61" s="37"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I62" s="40"/>
+      <c r="I62" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
